--- a/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2844,7 +2845,6 @@
           <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>91.39</t>
@@ -2876,7 +2876,6 @@
           <t>创金合信汇益纯债一年定期开放债券C</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -2908,7 +2907,6 @@
           <t>创金合信汇誉纯债六个月定期开放债券C</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -2924,6 +2922,594 @@
       </c>
       <c r="H29" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8641</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7448</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6506</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9878</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7930</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7698</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3515,4 +3516,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2516</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0366</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4241</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4028,4 +4029,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4037,7 +4038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4048,17 +4049,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4068,14 +4089,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.44</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1935</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4084,14 +4127,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.91</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4100,14 +4165,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.58</v>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1823</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4116,13 +4203,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9262</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6149</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4470</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4353</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>21.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4930,7 +4931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4941,17 +4942,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4961,14 +4982,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.48</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4977,14 +5020,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.44</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4993,14 +5058,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.91</v>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6365</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5009,14 +5096,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.58</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5991</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5025,13 +5134,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6405</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3067</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>35</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>21.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5671,7 +5672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5682,17 +5683,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5702,14 +5723,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.89</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5718,14 +5761,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.48</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5734,14 +5799,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.44</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5750,14 +5837,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.91</v>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5766,14 +5875,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24.58</v>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -5782,13 +5913,943 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5934</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4782</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2546</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>21.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>15.33</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>12.89</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>17.48</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>9.44</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>17.91</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>24.58</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>35</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>21.57</v>
       </c>
     </row>
@@ -600,6 +617,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8147</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4108</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1643,7 +2970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2383,7 +3710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3275,7 +4602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3787,7 +5114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4375,7 +5702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5474,7 +6801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002705-新宝股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>2.7</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>15.33</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>12.89</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>17.48</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>9.44</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>17.91</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>24.58</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1414 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>35</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>21.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5390</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7545</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1259</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0367</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9671</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8661</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3233</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2018,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013676</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银兴慧一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016130</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016131</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大摩量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +4219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2970,7 +5263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3710,7 +6003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4602,7 +6895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5114,7 +7407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5702,7 +7995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6799,1388 +9092,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>206009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>139.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.1388</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002621</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>51.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.6222</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010305</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>61.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.5390</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005777</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发科技动力股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>53.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.7545</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1259</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005028</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>26.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0367</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9671</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009312</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>新疆前海联合价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>16.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8661</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002780</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>新疆前海联合泓鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4187</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4129</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>288001</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏经典配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>71.90</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3233</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2669</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2583</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005671</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>新疆前海联合研究优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2323</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2141</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001672</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国寿安保智慧生活股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1535</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009313</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>新疆前海联合价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1532</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010306</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏创新驱动混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>50.42</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1432</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001336</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华弘益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1397</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001337</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华弘益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1372</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007043</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>新疆前海联合泓鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0994</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>502000</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0986</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>000006</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006593</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004634</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.56</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0654</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>000684</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长盛养老健康产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0466</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002772</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006594</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005672</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>新疆前海联合研究优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0219</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009300</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>011228</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007041</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.56</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>